--- a/data/income_statement/3digits/total/182_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/182_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>182-Reproduction of recorded media</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>182-Reproduction of recorded media</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>29604.31952</v>
@@ -971,22 +877,27 @@
         <v>15625.01154</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10697.37464</v>
+        <v>11699.17725</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>19056.56245</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22153.04533</v>
+        <v>22165.04533</v>
       </c>
       <c r="M5" s="47" t="n">
         <v>20931.50764</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="47" t="n">
+        <v>89441.91099999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>28674.91588</v>
@@ -1016,16 +927,21 @@
         <v>18374.2766</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>21358.36111</v>
+        <v>21366.36111</v>
       </c>
       <c r="M6" s="48" t="n">
         <v>20124.24881</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="48" t="n">
+        <v>19592.24</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>395.9888</v>
@@ -1049,7 +965,7 @@
         <v>1328.75276</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>0</v>
+        <v>1001.80261</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>456.50433</v>
@@ -1060,20 +976,25 @@
       <c r="M7" s="48" t="n">
         <v>730.35013</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>69788.18799999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>533.4148399999999</v>
+        <v>533.4148400000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>266.33177</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2323.23139</v>
+        <v>2323.231389999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>614.92641</v>
@@ -1094,16 +1015,21 @@
         <v>225.78152</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>172.26597</v>
+        <v>176.26597</v>
       </c>
       <c r="M8" s="48" t="n">
         <v>76.9087</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>61.483</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>258.26533</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>164.54053</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>197.596</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>234.32929</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>164.54053</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>197.596</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23.93604</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>29346.05419</v>
@@ -1283,22 +1229,27 @@
         <v>15319.86022</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10439.21545</v>
+        <v>11441.01806</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>18845.36391</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>22084.94048</v>
+        <v>22096.94048</v>
       </c>
       <c r="M13" s="47" t="n">
         <v>20766.96711</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="47" t="n">
+        <v>89244.315</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>14794.35839</v>
@@ -1316,7 +1267,7 @@
         <v>12109.88361</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9012.915809999999</v>
+        <v>9012.91581</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>5463.52183</v>
@@ -1325,19 +1276,24 @@
         <v>2951.67428</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5532.76829</v>
+        <v>5532.768289999999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6786.45619</v>
+        <v>6812.28418</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6523.65141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6547.987419999999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>84785.87</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1093.89434</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>131.15275</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>51.215</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>9890.880090000001</v>
@@ -1406,16 +1367,21 @@
         <v>3034.82326</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3049.02775</v>
+        <v>3069.85745</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>3693.42653</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>2118.857</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3809.58396</v>
@@ -1445,16 +1411,21 @@
         <v>2497.94503</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3737.42844</v>
+        <v>3742.42673</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2699.07213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2723.40814</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>82615.798</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>14551.6958</v>
@@ -1502,7 +1478,7 @@
         <v>2663.70765</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>7527.909189999999</v>
+        <v>7527.90919</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>9150.248949999999</v>
@@ -1517,22 +1493,27 @@
         <v>9856.338390000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7487.54117</v>
+        <v>8489.343780000001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>13312.59562</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>15298.48429</v>
+        <v>15284.6563</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14243.3157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14218.97969</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4458.445</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>10330.62069</v>
@@ -1541,37 +1522,42 @@
         <v>3602.09722</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8099.581689999999</v>
+        <v>8099.58169</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>9623.37542</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6569.03128</v>
+        <v>6569.031279999999</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>3945.97654</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5410.98505</v>
+        <v>5410.985050000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4445.8493</v>
+        <v>5359.38659</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>7945.87665</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8522.30456</v>
+        <v>8545.268890000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10385.43492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10414.08022</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10053.432</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2200.18403</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>303.64467</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>377.923</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>889.70983</v>
@@ -1622,7 +1613,7 @@
         <v>4103.55661</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4640.48127</v>
+        <v>4640.481269999999</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>1665.65399</v>
@@ -1645,11 +1636,16 @@
       <c r="M22" s="48" t="n">
         <v>33.3287</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>141.836</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>7240.726830000001</v>
@@ -1673,61 +1669,71 @@
         <v>5262.053849999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4180.08233</v>
+        <v>5093.61962</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>7279.62701</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8126.46723</v>
+        <v>8149.43156</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10048.46155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10077.10685</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>9533.673000000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4221.075110000001</v>
+        <v>4221.07511</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-938.38957</v>
+        <v>-938.3895699999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-571.6725000000001</v>
+        <v>-571.6725</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-473.1264700000002</v>
+        <v>-473.12647</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>2533.77633</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-499.24793</v>
+        <v>-499.2479300000001</v>
       </c>
       <c r="I24" s="47" t="n">
         <v>4445.35334</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3041.69187</v>
+        <v>3129.95719</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>5366.71897</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6776.179730000001</v>
+        <v>6739.38741</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3857.88078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3804.89947</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-5594.987</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1171.88449</v>
@@ -1751,7 +1757,7 @@
         <v>544.76698</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>737.2818599999999</v>
+        <v>739.47038</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>464.54569</v>
@@ -1762,11 +1768,16 @@
       <c r="M25" s="47" t="n">
         <v>1020.56471</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="47" t="n">
+        <v>2392.83</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>47.6339</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>603.48748</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>432.98734</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>192.555</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>40.26953</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>36.19522</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>50.09763</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>373.93986</v>
@@ -2024,7 +2065,7 @@
         <v>319.35081</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>291.0011</v>
+        <v>293.18962</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>178.41142</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>570.5721699999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>2188.105</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>20.26087</v>
@@ -2135,7 +2191,7 @@
         <v>306.83612</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>99.80421</v>
+        <v>99.80421000000001</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>0.02675</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>17.0052</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>512.90607</v>
@@ -2180,7 +2241,7 @@
         <v>332.10049</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>138.00167</v>
+        <v>139.38929</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>305.82449</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>311.95187</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>1367.486</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>25.24784</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>28.35159</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>12.307</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>59.40939</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>14.21892</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>391.58072</v>
@@ -2336,7 +2417,7 @@
         <v>297.46945</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>98.04774999999999</v>
+        <v>99.43536999999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>119.43806</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>283.33061</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>1353.335</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>22.4492</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>0.26967</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>1.844</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>317.04392</v>
@@ -2477,7 +2578,7 @@
         <v>444.21529</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>352.6496299999999</v>
+        <v>352.64963</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>435.06076</v>
@@ -2489,10 +2590,10 @@
         <v>373.80762</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>33.97802</v>
+        <v>33.97801999999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>74.71225000000001</v>
+        <v>74.71225</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>184.39095</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>624.1426</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>721.859</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>304.9609</v>
@@ -2516,7 +2622,7 @@
         <v>444.21529</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>352.6496299999999</v>
+        <v>352.64963</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>435.06076</v>
@@ -2528,10 +2634,10 @@
         <v>373.80762</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>33.97802</v>
+        <v>33.97801999999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>74.71225000000001</v>
+        <v>74.71225</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>184.39095</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>624.1426</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>721.859</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>12.08302</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4563.009609999999</v>
+        <v>4563.00961</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>-1356.66191</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-852.97059</v>
+        <v>-852.9705900000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-779.4356</v>
+        <v>-779.4356000000001</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>2446.80909</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-667.26368</v>
+        <v>-667.2636800000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4624.04181</v>
+        <v>4624.041810000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3566.25981</v>
+        <v>3655.32603</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>5341.04922</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7118.999940000001</v>
+        <v>7082.20762</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3942.351020000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3889.36971</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-5291.502</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>474.42206</v>
@@ -2642,28 +2763,33 @@
         <v>90.61772000000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>780.3243400000001</v>
+        <v>780.32434</v>
       </c>
       <c r="I48" s="47" t="n">
         <v>484.35765</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3061.92952</v>
+        <v>3266.35184</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>210.05383</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>59.94028</v>
+        <v>144.49474</v>
       </c>
       <c r="M48" s="47" t="n">
         <v>197.39378</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>432.46</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2.86771</v>
@@ -2687,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0</v>
+        <v>204.42182</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>471.55435</v>
@@ -2714,34 +2845,39 @@
         <v>105.07971</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>25.27415999999999</v>
+        <v>25.27416</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>90.61772000000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>780.3243400000001</v>
+        <v>780.32434</v>
       </c>
       <c r="I50" s="48" t="n">
         <v>484.35765</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3061.92952</v>
+        <v>3061.93002</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>210.05383</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>59.94028</v>
+        <v>144.49474</v>
       </c>
       <c r="M50" s="48" t="n">
         <v>197.39378</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>432.46</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>261.64935</v>
@@ -2759,28 +2895,33 @@
         <v>114.76923</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>693.4807900000001</v>
+        <v>693.48079</v>
       </c>
       <c r="I51" s="47" t="n">
         <v>375.67232</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1480.89847</v>
+        <v>1517.51432</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>639.37153</v>
+        <v>639.3715299999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2375.82604</v>
+        <v>2485.75816</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>226.83074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>227.15121</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>271.042</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.52401</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3.81389</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>0.07759999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>257.31145</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>74.02376999999998</v>
+        <v>74.02377</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>2683.80421</v>
@@ -2879,25 +3030,30 @@
         <v>692.25834</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>373.8537299999999</v>
+        <v>373.85373</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1480.5566</v>
+        <v>1517.17245</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>639.37153</v>
+        <v>639.3715299999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2364.23072</v>
+        <v>2474.16284</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>226.75314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>227.07361</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>269.3</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>4775.78232</v>
@@ -2906,40 +3062,45 @@
         <v>-1301.04914</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-3432.671060000001</v>
+        <v>-3432.67106</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-928.1821000000001</v>
+        <v>-928.1821</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>2422.65758</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-580.42013</v>
+        <v>-580.4201300000001</v>
       </c>
       <c r="I55" s="47" t="n">
         <v>4732.72714</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5147.29086</v>
+        <v>5404.16355</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4911.731519999999</v>
+        <v>4911.73152</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4803.11418</v>
+        <v>4740.9442</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3912.91406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3859.61228</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-5130.084</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>705.0266299999998</v>
+        <v>705.02663</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>88.31910999999999</v>
@@ -2960,7 +3121,7 @@
         <v>997.85572</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>957.1899100000001</v>
+        <v>976.0837299999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>924.8548900000001</v>
@@ -2971,11 +3132,16 @@
       <c r="M56" s="47" t="n">
         <v>435.56597</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>463.974</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4070.75569</v>
@@ -2987,7 +3153,7 @@
         <v>-3486.54611</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-995.8354700000001</v>
+        <v>-995.83547</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>2360.87327</v>
@@ -2999,19 +3165,22 @@
         <v>3734.87142</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4190.10095</v>
+        <v>4428.07982</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3986.87663</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3932.00631</v>
+        <v>3869.83633</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3477.34809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3424.04631</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-5594.058</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>209</v>
@@ -3053,19 +3225,22 @@
         <v>47</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>47</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>46</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>